--- a/tests/docs/test.xlsx
+++ b/tests/docs/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\code\test\excel\find_excel_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\code\github\search4file\tests\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B22664D-5DA3-4129-8C21-C4A27A564124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3949F72-1528-42EE-9A26-8BDA019CAABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3795" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-3795" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,6 +37,10 @@
   </si>
   <si>
     <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序员晚枫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,7 +368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -389,10 +393,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7623A536-88FC-4B00-8DCF-A912E06F4308}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -407,6 +411,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
